--- a/andes/cases/ieee14/case14.xlsx
+++ b/andes/cases/ieee14/case14.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10209"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10510"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hcui7/repos/andes/cases/ieee14/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hcui7/repos/andes/andes/cases/ieee14/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88F626FE-AAF8-7A4F-8D3C-F7E57D022729}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7074B847-E048-5B43-A3A0-6624CC905A3B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5400" yWindow="13480" windowWidth="17280" windowHeight="11280" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5400" yWindow="13480" windowWidth="17280" windowHeight="11280" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Bus" sheetId="1" r:id="rId1"/>
@@ -416,9 +416,6 @@
     <t>xl</t>
   </si>
   <si>
-    <t>xq</t>
-  </si>
-  <si>
     <t>kp</t>
   </si>
   <si>
@@ -459,6 +456,9 @@
   </si>
   <si>
     <t>Fault_1</t>
+  </si>
+  <si>
+    <t>xd1</t>
   </si>
 </sst>
 </file>
@@ -3820,9 +3820,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:S6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft"/>
+      <selection pane="bottomLeft" activeCell="O2" sqref="O2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -3871,19 +3871,19 @@
         <v>128</v>
       </c>
       <c r="O1" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="P1" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="S1" s="1" t="s">
         <v>132</v>
-      </c>
-      <c r="S1" s="1" t="s">
-        <v>133</v>
       </c>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.2">
@@ -3897,7 +3897,7 @@
         <v>1</v>
       </c>
       <c r="D2" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E2">
         <v>1</v>
@@ -3953,7 +3953,7 @@
         <v>1</v>
       </c>
       <c r="D3" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="E3">
         <v>2</v>
@@ -4009,7 +4009,7 @@
         <v>1</v>
       </c>
       <c r="D4" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E4">
         <v>3</v>
@@ -4065,7 +4065,7 @@
         <v>1</v>
       </c>
       <c r="D5" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="E5">
         <v>6</v>
@@ -4121,7 +4121,7 @@
         <v>1</v>
       </c>
       <c r="D6" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E6">
         <v>8</v>
@@ -4175,7 +4175,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:I2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="H2" sqref="H2"/>
     </sheetView>
@@ -4199,16 +4199,16 @@
         <v>28</v>
       </c>
       <c r="F1" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>141</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>142</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
@@ -4222,7 +4222,7 @@
         <v>1</v>
       </c>
       <c r="D2" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="E2">
         <v>4</v>
